--- a/Journal_travail_bord.xlsx
+++ b/Journal_travail_bord.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin.FONTANA\Documents\GitHub\Prog-C\Naval-strike\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babs2\Documents\GitHub\Naval-strike\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96DEB57-1EBD-4556-98AC-28AF92697A87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17670" windowHeight="8085"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
     <sheet name="Journal de bord" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>Projet</t>
   </si>
@@ -88,12 +97,21 @@
   </si>
   <si>
     <t>Nouveau journal de bord Pour bataille navale</t>
+  </si>
+  <si>
+    <t>Finition du journal de bord</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Déplacement des fichiers "externe" pour les rendre plus propres</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -132,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -158,11 +176,15 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -208,18 +230,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau2" displayName="Tableau2" ref="A1:G100" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:G100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau2" displayName="Tableau2" ref="A1:G100" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:G100" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="2" name="Projet" dataDxfId="6"/>
-    <tableColumn id="3" name="Descritpion" dataDxfId="5"/>
-    <tableColumn id="5" name="Date" dataDxfId="4"/>
-    <tableColumn id="6" name="Heure de début" dataDxfId="3"/>
-    <tableColumn id="7" name="Heure de fin" dataDxfId="2"/>
-    <tableColumn id="8" name="Temps" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Projet" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Descritpion" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Heure de début" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Heure de fin" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Temps" dataDxfId="2">
       <calculatedColumnFormula>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Sources" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sources" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{22BE70CD-1815-45DA-8FE4-A4D995FECDBE}" name="Tableau3" displayName="Tableau3" ref="A1:B100" totalsRowShown="0">
+  <autoFilter ref="A1:B100" xr:uid="{C52649B8-DFFB-4B14-8363-BEE6B9632CDE}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{0BBE2625-E3F8-40EB-BB39-7C85685426BE}" name="Date" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{82CCA54C-60DD-4814-AC42-1E7DE5F9932F}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -487,11 +520,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,36 +858,64 @@
       <c r="D14" s="7">
         <v>0.62777777777777777</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="7">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="F14" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>-0.62777777777777777</v>
-      </c>
-      <c r="G14" s="4"/>
+        <v>6.9444444444444198E-4</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="A15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6">
+        <v>43894</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.92152777777777783</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0.92361111111111116</v>
+      </c>
       <c r="F15" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="4"/>
+        <v>2.0833333333333259E-3</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="6">
+        <v>43894</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.9243055555555556</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.95624999999999993</v>
+      </c>
       <c r="F16" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="4"/>
+        <v>3.1944444444444331E-2</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F17" s="8">
@@ -1819,13 +1880,332 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="59.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>43894</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="9"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="9"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="9"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="9"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="9"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="9"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="9"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="9"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="9"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="9"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="9"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="9"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="9"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="9"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="9"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="9"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="9"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="9"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="9"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="9"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="9"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="9"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="9"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="9"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="9"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="9"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="9"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Journal_travail_bord.xlsx
+++ b/Journal_travail_bord.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babs2\Documents\GitHub\Naval-strike\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin.FONTANA\Documents\GitHub\Prog-C\Naval-strike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96DEB57-1EBD-4556-98AC-28AF92697A87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
     <sheet name="Journal de bord" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
   <si>
     <t>Projet</t>
   </si>
@@ -87,9 +86,6 @@
     <t>KAR</t>
   </si>
   <si>
-    <t>Maquette</t>
-  </si>
-  <si>
     <t>Battaile navale version base</t>
   </si>
   <si>
@@ -106,12 +102,18 @@
   </si>
   <si>
     <t>Déplacement des fichiers "externe" pour les rendre plus propres</t>
+  </si>
+  <si>
+    <t>Draw.io</t>
+  </si>
+  <si>
+    <t>bataille navale maquette</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -150,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,6 +179,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -230,29 +233,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau2" displayName="Tableau2" ref="A1:G100" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:G100" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau2" displayName="Tableau2" ref="A1:G100" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:G100"/>
   <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Projet" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Descritpion" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Heure de début" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Heure de fin" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Temps" dataDxfId="2">
+    <tableColumn id="2" name="Projet" dataDxfId="7"/>
+    <tableColumn id="3" name="Descritpion" dataDxfId="6"/>
+    <tableColumn id="5" name="Date" dataDxfId="5"/>
+    <tableColumn id="6" name="Heure de début" dataDxfId="4"/>
+    <tableColumn id="7" name="Heure de fin" dataDxfId="3"/>
+    <tableColumn id="8" name="Temps" dataDxfId="2">
       <calculatedColumnFormula>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sources" dataDxfId="1"/>
+    <tableColumn id="9" name="Sources" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{22BE70CD-1815-45DA-8FE4-A4D995FECDBE}" name="Tableau3" displayName="Tableau3" ref="A1:B100" totalsRowShown="0">
-  <autoFilter ref="A1:B100" xr:uid="{C52649B8-DFFB-4B14-8363-BEE6B9632CDE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau3" displayName="Tableau3" ref="A1:B100" totalsRowShown="0">
+  <autoFilter ref="A1:B100"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0BBE2625-E3F8-40EB-BB39-7C85685426BE}" name="Date" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{82CCA54C-60DD-4814-AC42-1E7DE5F9932F}" name="Description"/>
+    <tableColumn id="1" name="Date" dataDxfId="0"/>
+    <tableColumn id="3" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -520,11 +523,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,10 +754,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C10" s="6">
         <v>43894</v>
@@ -775,10 +778,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C11" s="6">
         <v>43894</v>
@@ -799,10 +802,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="C12" s="6">
         <v>43894</v>
@@ -826,7 +829,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="6">
         <v>43894</v>
@@ -850,7 +853,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="6">
         <v>43894</v>
@@ -874,7 +877,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="6">
         <v>43894</v>
@@ -918,52 +921,124 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6">
+        <v>43896</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.38819444444444445</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.39999999999999997</v>
+      </c>
       <c r="F17" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>1.1805555555555514E-2</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="A18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6">
+        <v>43896</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.41250000000000003</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="F18" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="4"/>
+        <v>4.5833333333333282E-2</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="A19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="6">
+        <v>43896</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.46527777777777773</v>
+      </c>
       <c r="F19" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="4"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6">
+        <v>43896</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.51111111111111118</v>
+      </c>
       <c r="F20" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>4.5138888888888951E-2</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="A21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="6">
+        <v>43896</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.56388888888888888</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0.62847222222222221</v>
+      </c>
       <c r="F21" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="4"/>
+        <v>6.4583333333333326E-2</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
@@ -1026,42 +1101,63 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="10"/>
       <c r="F27" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="10"/>
       <c r="F29" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="10"/>
       <c r="F30" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="10"/>
       <c r="F31" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="10"/>
       <c r="F32" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="10"/>
       <c r="F33" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>0</v>
@@ -1880,10 +1976,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1897,7 +1993,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1905,7 +2001,7 @@
         <v>43894</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/Journal_travail_bord.xlsx
+++ b/Journal_travail_bord.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="27">
   <si>
     <t>Projet</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>bataille navale maquette</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>patorjk.com</t>
   </si>
 </sst>
 </file>
@@ -152,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -180,6 +186,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,6 +544,7 @@
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -797,7 +807,7 @@
         <v>2.9861111111111116E-2</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -821,7 +831,7 @@
         <v>1.4583333333333282E-2</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1012,8 +1022,8 @@
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>4.5138888888888951E-2</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>14</v>
+      <c r="G20" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1041,40 +1051,76 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="A22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="6">
+        <v>43901</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.35972222222222222</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.37361111111111112</v>
+      </c>
       <c r="F22" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="4"/>
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="A23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="6">
+        <v>43901</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0.45</v>
+      </c>
       <c r="F23" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="4"/>
+        <v>2.430555555555558E-2</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="A24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="6">
+        <v>43901</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0.48888888888888887</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.50069444444444444</v>
+      </c>
       <c r="F24" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="4"/>
+        <v>1.1805555555555569E-2</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>

--- a/Journal_travail_bord.xlsx
+++ b/Journal_travail_bord.xlsx
@@ -536,7 +536,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,11 +1112,11 @@
         <v>0.48888888888888887</v>
       </c>
       <c r="E24" s="7">
-        <v>0.50069444444444444</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="F24" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>1.1805555555555569E-2</v>
+        <v>2.1527777777777757E-2</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>9</v>

--- a/Journal_travail_bord.xlsx
+++ b/Journal_travail_bord.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="27">
   <si>
     <t>Projet</t>
   </si>
@@ -536,7 +536,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,16 +1123,28 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="A25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="6">
+        <v>43902</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0.70416666666666661</v>
+      </c>
       <c r="F25" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="4"/>
+        <v>2.3611111111111138E-2</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>

--- a/Journal_travail_bord.xlsx
+++ b/Journal_travail_bord.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="27">
   <si>
     <t>Projet</t>
   </si>
@@ -536,7 +536,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,16 +1147,28 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="A26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="6">
+        <v>43903</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.50902777777777775</v>
+      </c>
       <c r="F26" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="4"/>
+        <v>0.10625000000000001</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>

--- a/Journal_travail_bord.xlsx
+++ b/Journal_travail_bord.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="27">
   <si>
     <t>Projet</t>
   </si>
@@ -193,7 +193,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="16">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -242,18 +266,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau2" displayName="Tableau2" ref="A1:G100" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:G100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau2" displayName="Tableau2" ref="A1:G101" totalsRowCount="1" headerRowDxfId="15">
+  <autoFilter ref="A1:G101"/>
   <tableColumns count="7">
-    <tableColumn id="2" name="Projet" dataDxfId="7"/>
-    <tableColumn id="3" name="Descritpion" dataDxfId="6"/>
-    <tableColumn id="5" name="Date" dataDxfId="5"/>
-    <tableColumn id="6" name="Heure de début" dataDxfId="4"/>
-    <tableColumn id="7" name="Heure de fin" dataDxfId="3"/>
-    <tableColumn id="8" name="Temps" dataDxfId="2">
+    <tableColumn id="2" name="Projet" dataDxfId="14" totalsRowDxfId="6"/>
+    <tableColumn id="3" name="Descritpion" dataDxfId="13" totalsRowDxfId="5"/>
+    <tableColumn id="5" name="Date" dataDxfId="12" totalsRowDxfId="4"/>
+    <tableColumn id="6" name="Heure de début" dataDxfId="11" totalsRowDxfId="3"/>
+    <tableColumn id="7" name="Heure de fin" dataDxfId="10" totalsRowDxfId="2"/>
+    <tableColumn id="8" name="Temps" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="1">
       <calculatedColumnFormula>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(Tableau2[Temps])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="Sources" dataDxfId="1"/>
+    <tableColumn id="9" name="Sources" dataDxfId="8" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -263,7 +288,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau3" displayName="Tableau3" ref="A1:B100" totalsRowShown="0">
   <autoFilter ref="A1:B100"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Date" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="7"/>
     <tableColumn id="3" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -533,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,16 +1196,32 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="10"/>
+      <c r="A27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="6">
+        <v>43903</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0.6166666666666667</v>
+      </c>
       <c r="F27" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>4.3750000000000067E-2</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="7"/>
       <c r="E28" s="10"/>
       <c r="F28" s="8">
@@ -2036,6 +2077,18 @@
         <v>0</v>
       </c>
       <c r="G100" s="4"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7">
+        <f>SUM(Tableau2[Temps])</f>
+        <v>0.83888888888888868</v>
+      </c>
+      <c r="G101" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Journal_travail_bord.xlsx
+++ b/Journal_travail_bord.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin.FONTANA\Documents\GitHub\Prog-C\Naval-strike\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babs2\Documents\GitHub\Naval-strike\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77609C43-B9D3-42F7-AD7F-A5B8D9B07C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="30390" yWindow="1935" windowWidth="24465" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
     <sheet name="Journal de bord" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="28">
   <si>
     <t>Projet</t>
   </si>
@@ -114,12 +115,15 @@
   </si>
   <si>
     <t>patorjk.com</t>
+  </si>
+  <si>
+    <t>openclassrooms.com/KAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -158,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -189,6 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -266,30 +271,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau2" displayName="Tableau2" ref="A1:G101" totalsRowCount="1" headerRowDxfId="15">
-  <autoFilter ref="A1:G101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau2" displayName="Tableau2" ref="A1:G101" totalsRowCount="1" headerRowDxfId="15">
+  <autoFilter ref="A1:G100" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="2" name="Projet" dataDxfId="14" totalsRowDxfId="6"/>
-    <tableColumn id="3" name="Descritpion" dataDxfId="13" totalsRowDxfId="5"/>
-    <tableColumn id="5" name="Date" dataDxfId="12" totalsRowDxfId="4"/>
-    <tableColumn id="6" name="Heure de début" dataDxfId="11" totalsRowDxfId="3"/>
-    <tableColumn id="7" name="Heure de fin" dataDxfId="10" totalsRowDxfId="2"/>
-    <tableColumn id="8" name="Temps" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="1">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Projet" dataDxfId="14" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Descritpion" dataDxfId="13" totalsRowDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Date" dataDxfId="12" totalsRowDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Heure de début" dataDxfId="11" totalsRowDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Heure de fin" dataDxfId="10" totalsRowDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Temps" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="1">
       <calculatedColumnFormula>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(Tableau2[Temps])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" name="Sources" dataDxfId="8" totalsRowDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sources" dataDxfId="8" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau3" displayName="Tableau3" ref="A1:B100" totalsRowShown="0">
-  <autoFilter ref="A1:B100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau3" displayName="Tableau3" ref="A1:B100" totalsRowShown="0">
+  <autoFilter ref="A1:B100" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Date" dataDxfId="7"/>
-    <tableColumn id="3" name="Description"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -557,11 +562,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +574,7 @@
     <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1220,22 +1225,51 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="10"/>
+      <c r="A28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="9">
+        <v>43908</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0.5</v>
+      </c>
       <c r="F28" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>8.3333333333333037E-3</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="10"/>
+      <c r="A29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="9">
+        <v>43908</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.51527777777777783</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.54861111111111105</v>
+      </c>
       <c r="F29" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>3.3333333333333215E-2</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2086,7 +2120,7 @@
       <c r="E101" s="7"/>
       <c r="F101" s="7">
         <f>SUM(Tableau2[Temps])</f>
-        <v>0.83888888888888868</v>
+        <v>0.8805555555555552</v>
       </c>
       <c r="G101" s="4"/>
     </row>
@@ -2099,7 +2133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B100"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Journal_travail_bord.xlsx
+++ b/Journal_travail_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babs2\Documents\GitHub\Naval-strike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77609C43-B9D3-42F7-AD7F-A5B8D9B07C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACD5009-0A3A-48F5-ACBA-AE31EA5744A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30390" yWindow="1935" windowWidth="24465" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30840" yWindow="1470" windowWidth="24465" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="28">
   <si>
     <t>Projet</t>
   </si>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,12 +1273,27 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="10"/>
+      <c r="A30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="9">
+        <v>43908</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0.65833333333333333</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0.70694444444444438</v>
+      </c>
       <c r="F30" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>4.8611111111111049E-2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2120,7 +2135,7 @@
       <c r="E101" s="7"/>
       <c r="F101" s="7">
         <f>SUM(Tableau2[Temps])</f>
-        <v>0.8805555555555552</v>
+        <v>0.92916666666666625</v>
       </c>
       <c r="G101" s="4"/>
     </row>

--- a/Journal_travail_bord.xlsx
+++ b/Journal_travail_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babs2\Documents\GitHub\Naval-strike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACD5009-0A3A-48F5-ACBA-AE31EA5744A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E074C7-F763-4CF5-B196-4FF98BFDC2FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30840" yWindow="1470" windowWidth="24465" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
   <si>
     <t>Projet</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>openclassrooms.com/KAR</t>
+  </si>
+  <si>
+    <t>CJR</t>
   </si>
 </sst>
 </file>
@@ -565,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,12 +1300,27 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="10"/>
+      <c r="A31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="9">
+        <v>43910</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0.50624999999999998</v>
+      </c>
       <c r="F31" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>5.9722222222222177E-2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2135,7 +2153,7 @@
       <c r="E101" s="7"/>
       <c r="F101" s="7">
         <f>SUM(Tableau2[Temps])</f>
-        <v>0.92916666666666625</v>
+        <v>0.98888888888888848</v>
       </c>
       <c r="G101" s="4"/>
     </row>

--- a/Journal_travail_bord.xlsx
+++ b/Journal_travail_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babs2\Documents\GitHub\Naval-strike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E074C7-F763-4CF5-B196-4FF98BFDC2FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4742BE48-9C49-4F74-A6C1-5A288171B9DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="29">
   <si>
     <t>Projet</t>
   </si>
@@ -569,7 +569,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1324,12 +1324,27 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="10"/>
+      <c r="A32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="9">
+        <v>43910</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0.53402777777777777</v>
+      </c>
+      <c r="E32" s="10">
+        <v>0.68888888888888899</v>
+      </c>
       <c r="F32" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>0.15486111111111123</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2153,7 +2168,7 @@
       <c r="E101" s="7"/>
       <c r="F101" s="7">
         <f>SUM(Tableau2[Temps])</f>
-        <v>0.98888888888888848</v>
+        <v>1.1437499999999998</v>
       </c>
       <c r="G101" s="4"/>
     </row>

--- a/Journal_travail_bord.xlsx
+++ b/Journal_travail_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babs2\Documents\GitHub\Naval-strike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4742BE48-9C49-4F74-A6C1-5A288171B9DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C4EDA8-646C-4503-A4B3-D6D3628D908B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33465" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="29">
   <si>
     <t>Projet</t>
   </si>
@@ -569,7 +569,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,12 +1348,27 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="10"/>
+      <c r="A33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="9">
+        <v>43913</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0.63402777777777775</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0.64166666666666672</v>
+      </c>
       <c r="F33" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>7.6388888888889728E-3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2168,7 +2183,7 @@
       <c r="E101" s="7"/>
       <c r="F101" s="7">
         <f>SUM(Tableau2[Temps])</f>
-        <v>1.1437499999999998</v>
+        <v>1.1513888888888888</v>
       </c>
       <c r="G101" s="4"/>
     </row>

--- a/Journal_travail_bord.xlsx
+++ b/Journal_travail_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babs2\Documents\GitHub\Naval-strike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C4EDA8-646C-4503-A4B3-D6D3628D908B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF161D8-F9FF-47C3-9377-6723C1FB7035}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33465" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7695" yWindow="2085" windowWidth="16920" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="29">
   <si>
     <t>Projet</t>
   </si>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,16 +1372,28 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
+      <c r="A34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="6">
+        <v>43916</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.7284722222222223</v>
+      </c>
       <c r="F34" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="4"/>
+        <v>4.9305555555555602E-2</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
@@ -2183,7 +2195,7 @@
       <c r="E101" s="7"/>
       <c r="F101" s="7">
         <f>SUM(Tableau2[Temps])</f>
-        <v>1.1513888888888888</v>
+        <v>1.2006944444444443</v>
       </c>
       <c r="G101" s="4"/>
     </row>

--- a/Journal_travail_bord.xlsx
+++ b/Journal_travail_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babs2\Documents\GitHub\Naval-strike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF161D8-F9FF-47C3-9377-6723C1FB7035}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EAA5E7-C925-44FA-AA03-E422D35C2493}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7695" yWindow="2085" windowWidth="16920" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="29">
   <si>
     <t>Projet</t>
   </si>
@@ -569,7 +569,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,16 +1396,28 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
+      <c r="A35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="6">
+        <v>43917</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0.41805555555555557</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.4993055555555555</v>
+      </c>
       <c r="F35" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="4"/>
+        <v>8.1249999999999933E-2</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
@@ -2195,7 +2207,7 @@
       <c r="E101" s="7"/>
       <c r="F101" s="7">
         <f>SUM(Tableau2[Temps])</f>
-        <v>1.2006944444444443</v>
+        <v>1.2819444444444441</v>
       </c>
       <c r="G101" s="4"/>
     </row>

--- a/Journal_travail_bord.xlsx
+++ b/Journal_travail_bord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babs2\Documents\GitHub\Naval-strike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EAA5E7-C925-44FA-AA03-E422D35C2493}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CE3AAC-211B-44B1-A077-9BF62C898AFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7695" yWindow="2085" windowWidth="16920" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="29">
   <si>
     <t>Projet</t>
   </si>
@@ -569,7 +569,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,14 +1420,24 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
+      <c r="A36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="6">
+        <v>43917</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.77013888888888893</v>
+      </c>
       <c r="F36" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
+        <v>7.2222222222222299E-2</v>
       </c>
       <c r="G36" s="4"/>
     </row>
@@ -2207,7 +2217,7 @@
       <c r="E101" s="7"/>
       <c r="F101" s="7">
         <f>SUM(Tableau2[Temps])</f>
-        <v>1.2819444444444441</v>
+        <v>1.3541666666666665</v>
       </c>
       <c r="G101" s="4"/>
     </row>

--- a/Journal_travail_bord.xlsx
+++ b/Journal_travail_bord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babs2\Documents\GitHub\Naval-strike\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CE3AAC-211B-44B1-A077-9BF62C898AFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFABD8F-3B14-4EDB-A05C-7AB6C7128DC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7695" yWindow="2085" windowWidth="16920" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32640" yWindow="1950" windowWidth="16920" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="29">
   <si>
     <t>Projet</t>
   </si>
@@ -569,7 +569,7 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,19 +1439,33 @@
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
         <v>7.2222222222222299E-2</v>
       </c>
-      <c r="G36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
+      <c r="A37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="6">
+        <v>43921</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.75277777777777777</v>
+      </c>
       <c r="F37" s="8">
         <f>Tableau2[[#This Row],[Heure de fin]]-Tableau2[[#This Row],[Heure de début]]</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="4"/>
+        <v>3.0555555555555558E-2</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
@@ -2217,7 +2231,7 @@
       <c r="E101" s="7"/>
       <c r="F101" s="7">
         <f>SUM(Tableau2[Temps])</f>
-        <v>1.3541666666666665</v>
+        <v>1.384722222222222</v>
       </c>
       <c r="G101" s="4"/>
     </row>
